--- a/TestData/T1832_OpportunityCounterpartiesPageAddCounterparties.xlsx
+++ b/TestData/T1832_OpportunityCounterpartiesPageAddCounterparties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGoyal0427\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgoyal0427\source\repos\SalesForce_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7176"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -373,16 +373,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>

--- a/TestData/T1832_OpportunityCounterpartiesPageAddCounterparties.xlsx
+++ b/TestData/T1832_OpportunityCounterpartiesPageAddCounterparties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgoyal0427\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGoyal0427\source\repos\SalesForce_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7176"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -373,16 +373,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>

--- a/TestData/T1832_OpportunityCounterpartiesPageAddCounterparties.xlsx
+++ b/TestData/T1832_OpportunityCounterpartiesPageAddCounterparties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGoyal0427\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGoyal0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF5B1FA-8A1C-4165-9D25-AB6920856CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -18,14 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -43,13 +36,13 @@
     <t>SFCAO User</t>
   </si>
   <si>
-    <t>Emre Abale</t>
+    <t>James Craven</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,11 +362,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
